--- a/src/core/data/EBOM.xlsx
+++ b/src/core/data/EBOM.xlsx
@@ -513,7 +513,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -634,10 +634,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
@@ -697,14 +693,14 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF00B050"/>
+          <fgColor rgb="00FFFFFF"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
+          <fgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1027,7 +1023,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A17" activeCellId="0" sqref="17:17"/>
+      <selection pane="bottomLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="3" outlineLevelCol="1"/>
@@ -1082,7 +1078,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="5" width="13.66"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="67" min="67" style="5" width="15.44"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="68" min="68" style="5" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="69" min="69" style="5" width="10.88"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="69" min="69" style="5" width="10.87"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="70" min="70" style="5" width="16.66"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="71" min="71" style="5" width="13"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="72" min="72" style="5" width="64"/>
@@ -1096,7 +1092,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="82" min="82" style="8" width="10.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="83" min="83" style="8" width="8.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="84" min="84" style="8" width="13.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="85" min="85" style="8" width="9.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="85" min="85" style="8" width="9.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="86" min="86" style="5" width="5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="87" min="87" style="8" width="4.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="88" min="88" style="8" width="6.55"/>
@@ -1382,7 +1378,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="24" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C2" s="24" t="n">
         <v>12</v>
@@ -1505,39 +1501,39 @@
         <v>103</v>
       </c>
       <c r="BV2" s="24"/>
-      <c r="BW2" s="30" t="s">
+      <c r="BW2" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="BX2" s="31" t="s">
+      <c r="BX2" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="BY2" s="30" t="s">
+      <c r="BY2" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="BZ2" s="30" t="s">
+      <c r="BZ2" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="CA2" s="30" t="s">
+      <c r="CA2" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="CB2" s="32"/>
+      <c r="CB2" s="31"/>
       <c r="CC2" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="CD2" s="32"/>
-      <c r="CE2" s="32"/>
-      <c r="CF2" s="32" t="s">
+      <c r="CD2" s="31"/>
+      <c r="CE2" s="31"/>
+      <c r="CF2" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="CG2" s="32"/>
-      <c r="CH2" s="32" t="s">
+      <c r="CG2" s="31"/>
+      <c r="CH2" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="CI2" s="32"/>
-      <c r="CJ2" s="33"/>
-      <c r="CK2" s="33"/>
-      <c r="CL2" s="33"/>
-      <c r="CM2" s="34" t="n">
+      <c r="CI2" s="31"/>
+      <c r="CJ2" s="32"/>
+      <c r="CK2" s="32"/>
+      <c r="CL2" s="32"/>
+      <c r="CM2" s="33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1669,39 +1665,39 @@
         <v>103</v>
       </c>
       <c r="BV3" s="24"/>
-      <c r="BW3" s="30" t="s">
+      <c r="BW3" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="BX3" s="31" t="s">
+      <c r="BX3" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="BY3" s="30" t="s">
+      <c r="BY3" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="BZ3" s="30" t="s">
+      <c r="BZ3" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="CA3" s="30" t="s">
+      <c r="CA3" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="CB3" s="32"/>
+      <c r="CB3" s="31"/>
       <c r="CC3" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="CD3" s="32"/>
-      <c r="CE3" s="32"/>
-      <c r="CF3" s="32" t="s">
+      <c r="CD3" s="31"/>
+      <c r="CE3" s="31"/>
+      <c r="CF3" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="CG3" s="32"/>
-      <c r="CH3" s="32" t="s">
+      <c r="CG3" s="31"/>
+      <c r="CH3" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="CI3" s="32"/>
-      <c r="CJ3" s="33"/>
-      <c r="CK3" s="33"/>
-      <c r="CL3" s="33"/>
-      <c r="CM3" s="34" t="n">
+      <c r="CI3" s="31"/>
+      <c r="CJ3" s="32"/>
+      <c r="CK3" s="32"/>
+      <c r="CL3" s="32"/>
+      <c r="CM3" s="33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1833,39 +1829,39 @@
         <v>103</v>
       </c>
       <c r="BV4" s="24"/>
-      <c r="BW4" s="30" t="s">
+      <c r="BW4" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="BX4" s="31" t="s">
+      <c r="BX4" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="BY4" s="30" t="s">
+      <c r="BY4" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="BZ4" s="30" t="s">
+      <c r="BZ4" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="CA4" s="30" t="s">
+      <c r="CA4" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="CB4" s="32"/>
+      <c r="CB4" s="31"/>
       <c r="CC4" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="CD4" s="32"/>
-      <c r="CE4" s="32"/>
-      <c r="CF4" s="32" t="s">
+      <c r="CD4" s="31"/>
+      <c r="CE4" s="31"/>
+      <c r="CF4" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="CG4" s="32"/>
-      <c r="CH4" s="32" t="s">
+      <c r="CG4" s="31"/>
+      <c r="CH4" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="CI4" s="32"/>
-      <c r="CJ4" s="33"/>
-      <c r="CK4" s="33"/>
-      <c r="CL4" s="33"/>
-      <c r="CM4" s="34" t="n">
+      <c r="CI4" s="31"/>
+      <c r="CJ4" s="32"/>
+      <c r="CK4" s="32"/>
+      <c r="CL4" s="32"/>
+      <c r="CM4" s="33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1997,39 +1993,39 @@
         <v>103</v>
       </c>
       <c r="BV5" s="24"/>
-      <c r="BW5" s="30" t="s">
+      <c r="BW5" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="BX5" s="31" t="s">
+      <c r="BX5" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="BY5" s="30" t="s">
+      <c r="BY5" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="BZ5" s="30" t="s">
+      <c r="BZ5" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="CA5" s="30" t="s">
+      <c r="CA5" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="CB5" s="32"/>
+      <c r="CB5" s="31"/>
       <c r="CC5" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="CD5" s="32"/>
-      <c r="CE5" s="32"/>
-      <c r="CF5" s="32" t="s">
+      <c r="CD5" s="31"/>
+      <c r="CE5" s="31"/>
+      <c r="CF5" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="CG5" s="32"/>
-      <c r="CH5" s="32" t="s">
+      <c r="CG5" s="31"/>
+      <c r="CH5" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="CI5" s="32"/>
-      <c r="CJ5" s="33"/>
-      <c r="CK5" s="33"/>
-      <c r="CL5" s="33"/>
-      <c r="CM5" s="34" t="n">
+      <c r="CI5" s="31"/>
+      <c r="CJ5" s="32"/>
+      <c r="CK5" s="32"/>
+      <c r="CL5" s="32"/>
+      <c r="CM5" s="33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2161,39 +2157,39 @@
         <v>103</v>
       </c>
       <c r="BV6" s="24"/>
-      <c r="BW6" s="30" t="s">
+      <c r="BW6" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="BX6" s="31" t="s">
+      <c r="BX6" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="BY6" s="30" t="s">
+      <c r="BY6" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="BZ6" s="30" t="s">
+      <c r="BZ6" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="CA6" s="30" t="s">
+      <c r="CA6" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="CB6" s="32"/>
+      <c r="CB6" s="31"/>
       <c r="CC6" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="CD6" s="32"/>
-      <c r="CE6" s="32"/>
-      <c r="CF6" s="32" t="s">
+      <c r="CD6" s="31"/>
+      <c r="CE6" s="31"/>
+      <c r="CF6" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="CG6" s="32"/>
-      <c r="CH6" s="32" t="s">
+      <c r="CG6" s="31"/>
+      <c r="CH6" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="CI6" s="32"/>
-      <c r="CJ6" s="33"/>
-      <c r="CK6" s="33"/>
-      <c r="CL6" s="33"/>
-      <c r="CM6" s="34" t="n">
+      <c r="CI6" s="31"/>
+      <c r="CJ6" s="32"/>
+      <c r="CK6" s="32"/>
+      <c r="CL6" s="32"/>
+      <c r="CM6" s="33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2325,39 +2321,39 @@
         <v>103</v>
       </c>
       <c r="BV7" s="24"/>
-      <c r="BW7" s="30" t="s">
+      <c r="BW7" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="BX7" s="31" t="s">
+      <c r="BX7" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="BY7" s="30" t="s">
+      <c r="BY7" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="BZ7" s="30" t="s">
+      <c r="BZ7" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="CA7" s="30" t="s">
+      <c r="CA7" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="CB7" s="32"/>
+      <c r="CB7" s="31"/>
       <c r="CC7" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="CD7" s="32"/>
-      <c r="CE7" s="32"/>
-      <c r="CF7" s="32" t="s">
+      <c r="CD7" s="31"/>
+      <c r="CE7" s="31"/>
+      <c r="CF7" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="CG7" s="32"/>
-      <c r="CH7" s="32" t="s">
+      <c r="CG7" s="31"/>
+      <c r="CH7" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="CI7" s="32"/>
-      <c r="CJ7" s="33"/>
-      <c r="CK7" s="33"/>
-      <c r="CL7" s="33"/>
-      <c r="CM7" s="34" t="n">
+      <c r="CI7" s="31"/>
+      <c r="CJ7" s="32"/>
+      <c r="CK7" s="32"/>
+      <c r="CL7" s="32"/>
+      <c r="CM7" s="33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2489,39 +2485,39 @@
         <v>103</v>
       </c>
       <c r="BV8" s="24"/>
-      <c r="BW8" s="30" t="s">
+      <c r="BW8" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="BX8" s="31" t="s">
+      <c r="BX8" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="BY8" s="30" t="s">
+      <c r="BY8" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="BZ8" s="30" t="s">
+      <c r="BZ8" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="CA8" s="30" t="s">
+      <c r="CA8" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="CB8" s="32"/>
+      <c r="CB8" s="31"/>
       <c r="CC8" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="CD8" s="32"/>
-      <c r="CE8" s="32"/>
-      <c r="CF8" s="32" t="s">
+      <c r="CD8" s="31"/>
+      <c r="CE8" s="31"/>
+      <c r="CF8" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="CG8" s="32"/>
-      <c r="CH8" s="32" t="s">
+      <c r="CG8" s="31"/>
+      <c r="CH8" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="CI8" s="32"/>
-      <c r="CJ8" s="33"/>
-      <c r="CK8" s="33"/>
-      <c r="CL8" s="33"/>
-      <c r="CM8" s="34" t="n">
+      <c r="CI8" s="31"/>
+      <c r="CJ8" s="32"/>
+      <c r="CK8" s="32"/>
+      <c r="CL8" s="32"/>
+      <c r="CM8" s="33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,39 +2649,39 @@
         <v>103</v>
       </c>
       <c r="BV9" s="24"/>
-      <c r="BW9" s="30" t="s">
+      <c r="BW9" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="BX9" s="31" t="s">
+      <c r="BX9" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="BY9" s="30" t="s">
+      <c r="BY9" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="BZ9" s="30" t="s">
+      <c r="BZ9" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="CA9" s="30" t="s">
+      <c r="CA9" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="CB9" s="32"/>
+      <c r="CB9" s="31"/>
       <c r="CC9" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="CD9" s="32"/>
-      <c r="CE9" s="32"/>
-      <c r="CF9" s="32" t="s">
+      <c r="CD9" s="31"/>
+      <c r="CE9" s="31"/>
+      <c r="CF9" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="CG9" s="32"/>
-      <c r="CH9" s="32" t="s">
+      <c r="CG9" s="31"/>
+      <c r="CH9" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="CI9" s="32"/>
-      <c r="CJ9" s="33"/>
-      <c r="CK9" s="33"/>
-      <c r="CL9" s="33"/>
-      <c r="CM9" s="34" t="n">
+      <c r="CI9" s="31"/>
+      <c r="CJ9" s="32"/>
+      <c r="CK9" s="32"/>
+      <c r="CL9" s="32"/>
+      <c r="CM9" s="33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2817,39 +2813,39 @@
         <v>103</v>
       </c>
       <c r="BV10" s="24"/>
-      <c r="BW10" s="30" t="s">
+      <c r="BW10" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="BX10" s="31" t="s">
+      <c r="BX10" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="BY10" s="30" t="s">
+      <c r="BY10" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="BZ10" s="30" t="s">
+      <c r="BZ10" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="CA10" s="30" t="s">
+      <c r="CA10" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="CB10" s="32"/>
+      <c r="CB10" s="31"/>
       <c r="CC10" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="CD10" s="32"/>
-      <c r="CE10" s="32"/>
-      <c r="CF10" s="32" t="s">
+      <c r="CD10" s="31"/>
+      <c r="CE10" s="31"/>
+      <c r="CF10" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="CG10" s="32"/>
-      <c r="CH10" s="32" t="s">
+      <c r="CG10" s="31"/>
+      <c r="CH10" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="CI10" s="32"/>
-      <c r="CJ10" s="33"/>
-      <c r="CK10" s="33"/>
-      <c r="CL10" s="33"/>
-      <c r="CM10" s="34" t="n">
+      <c r="CI10" s="31"/>
+      <c r="CJ10" s="32"/>
+      <c r="CK10" s="32"/>
+      <c r="CL10" s="32"/>
+      <c r="CM10" s="33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2981,39 +2977,39 @@
         <v>103</v>
       </c>
       <c r="BV11" s="24"/>
-      <c r="BW11" s="30" t="s">
+      <c r="BW11" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="BX11" s="31" t="s">
+      <c r="BX11" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="BY11" s="30" t="s">
+      <c r="BY11" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="BZ11" s="30" t="s">
+      <c r="BZ11" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="CA11" s="30" t="s">
+      <c r="CA11" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="CB11" s="32"/>
+      <c r="CB11" s="31"/>
       <c r="CC11" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="CD11" s="32"/>
-      <c r="CE11" s="32"/>
-      <c r="CF11" s="32" t="s">
+      <c r="CD11" s="31"/>
+      <c r="CE11" s="31"/>
+      <c r="CF11" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="CG11" s="32"/>
-      <c r="CH11" s="32" t="s">
+      <c r="CG11" s="31"/>
+      <c r="CH11" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="CI11" s="32"/>
-      <c r="CJ11" s="33"/>
-      <c r="CK11" s="33"/>
-      <c r="CL11" s="33"/>
-      <c r="CM11" s="34" t="n">
+      <c r="CI11" s="31"/>
+      <c r="CJ11" s="32"/>
+      <c r="CK11" s="32"/>
+      <c r="CL11" s="32"/>
+      <c r="CM11" s="33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3145,39 +3141,39 @@
         <v>103</v>
       </c>
       <c r="BV12" s="24"/>
-      <c r="BW12" s="30" t="s">
+      <c r="BW12" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="BX12" s="31" t="s">
+      <c r="BX12" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="BY12" s="30" t="s">
+      <c r="BY12" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="BZ12" s="30" t="s">
+      <c r="BZ12" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="CA12" s="30" t="s">
+      <c r="CA12" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="CB12" s="32"/>
+      <c r="CB12" s="31"/>
       <c r="CC12" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="CD12" s="32"/>
-      <c r="CE12" s="32"/>
-      <c r="CF12" s="32" t="s">
+      <c r="CD12" s="31"/>
+      <c r="CE12" s="31"/>
+      <c r="CF12" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="CG12" s="32"/>
-      <c r="CH12" s="32" t="s">
+      <c r="CG12" s="31"/>
+      <c r="CH12" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="CI12" s="32"/>
-      <c r="CJ12" s="33"/>
-      <c r="CK12" s="33"/>
-      <c r="CL12" s="33"/>
-      <c r="CM12" s="34" t="n">
+      <c r="CI12" s="31"/>
+      <c r="CJ12" s="32"/>
+      <c r="CK12" s="32"/>
+      <c r="CL12" s="32"/>
+      <c r="CM12" s="33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3309,39 +3305,39 @@
         <v>103</v>
       </c>
       <c r="BV13" s="24"/>
-      <c r="BW13" s="30" t="s">
+      <c r="BW13" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="BX13" s="31" t="s">
+      <c r="BX13" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="BY13" s="30" t="s">
+      <c r="BY13" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="BZ13" s="30" t="s">
+      <c r="BZ13" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="CA13" s="30" t="s">
+      <c r="CA13" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="CB13" s="32"/>
+      <c r="CB13" s="31"/>
       <c r="CC13" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="CD13" s="32"/>
-      <c r="CE13" s="32"/>
-      <c r="CF13" s="32" t="s">
+      <c r="CD13" s="31"/>
+      <c r="CE13" s="31"/>
+      <c r="CF13" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="CG13" s="32"/>
-      <c r="CH13" s="32" t="s">
+      <c r="CG13" s="31"/>
+      <c r="CH13" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="CI13" s="32"/>
-      <c r="CJ13" s="33"/>
-      <c r="CK13" s="33"/>
-      <c r="CL13" s="33"/>
-      <c r="CM13" s="34" t="n">
+      <c r="CI13" s="31"/>
+      <c r="CJ13" s="32"/>
+      <c r="CK13" s="32"/>
+      <c r="CL13" s="32"/>
+      <c r="CM13" s="33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3473,39 +3469,39 @@
         <v>103</v>
       </c>
       <c r="BV14" s="24"/>
-      <c r="BW14" s="30" t="s">
+      <c r="BW14" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="BX14" s="31" t="s">
+      <c r="BX14" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="BY14" s="30" t="s">
+      <c r="BY14" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="BZ14" s="30" t="s">
+      <c r="BZ14" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="CA14" s="30" t="s">
+      <c r="CA14" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="CB14" s="32"/>
+      <c r="CB14" s="31"/>
       <c r="CC14" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="CD14" s="32"/>
-      <c r="CE14" s="32"/>
-      <c r="CF14" s="32" t="s">
+      <c r="CD14" s="31"/>
+      <c r="CE14" s="31"/>
+      <c r="CF14" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="CG14" s="32"/>
-      <c r="CH14" s="32" t="s">
+      <c r="CG14" s="31"/>
+      <c r="CH14" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="CI14" s="32"/>
-      <c r="CJ14" s="33"/>
-      <c r="CK14" s="33"/>
-      <c r="CL14" s="33"/>
-      <c r="CM14" s="34" t="n">
+      <c r="CI14" s="31"/>
+      <c r="CJ14" s="32"/>
+      <c r="CK14" s="32"/>
+      <c r="CL14" s="32"/>
+      <c r="CM14" s="33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3637,39 +3633,39 @@
         <v>103</v>
       </c>
       <c r="BV15" s="24"/>
-      <c r="BW15" s="30" t="s">
+      <c r="BW15" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="BX15" s="31" t="s">
+      <c r="BX15" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="BY15" s="30" t="s">
+      <c r="BY15" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="BZ15" s="30" t="s">
+      <c r="BZ15" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="CA15" s="30" t="s">
+      <c r="CA15" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="CB15" s="32"/>
+      <c r="CB15" s="31"/>
       <c r="CC15" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="CD15" s="32"/>
-      <c r="CE15" s="32"/>
-      <c r="CF15" s="32" t="s">
+      <c r="CD15" s="31"/>
+      <c r="CE15" s="31"/>
+      <c r="CF15" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="CG15" s="32"/>
-      <c r="CH15" s="32" t="s">
+      <c r="CG15" s="31"/>
+      <c r="CH15" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="CI15" s="32"/>
-      <c r="CJ15" s="33"/>
-      <c r="CK15" s="33"/>
-      <c r="CL15" s="33"/>
-      <c r="CM15" s="34" t="n">
+      <c r="CI15" s="31"/>
+      <c r="CJ15" s="32"/>
+      <c r="CK15" s="32"/>
+      <c r="CL15" s="32"/>
+      <c r="CM15" s="33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3801,39 +3797,39 @@
         <v>103</v>
       </c>
       <c r="BV16" s="24"/>
-      <c r="BW16" s="30" t="s">
+      <c r="BW16" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="BX16" s="31" t="s">
+      <c r="BX16" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="BY16" s="30" t="s">
+      <c r="BY16" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="BZ16" s="30" t="s">
+      <c r="BZ16" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="CA16" s="30" t="s">
+      <c r="CA16" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="CB16" s="32"/>
+      <c r="CB16" s="31"/>
       <c r="CC16" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="CD16" s="32"/>
-      <c r="CE16" s="32"/>
-      <c r="CF16" s="32" t="s">
+      <c r="CD16" s="31"/>
+      <c r="CE16" s="31"/>
+      <c r="CF16" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="CG16" s="32"/>
-      <c r="CH16" s="32" t="s">
+      <c r="CG16" s="31"/>
+      <c r="CH16" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="CI16" s="32"/>
-      <c r="CJ16" s="33"/>
-      <c r="CK16" s="33"/>
-      <c r="CL16" s="33"/>
-      <c r="CM16" s="34" t="n">
+      <c r="CI16" s="31"/>
+      <c r="CJ16" s="32"/>
+      <c r="CK16" s="32"/>
+      <c r="CL16" s="32"/>
+      <c r="CM16" s="33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3965,39 +3961,39 @@
         <v>103</v>
       </c>
       <c r="BV17" s="24"/>
-      <c r="BW17" s="30" t="s">
+      <c r="BW17" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="BX17" s="31" t="s">
+      <c r="BX17" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="BY17" s="30" t="s">
+      <c r="BY17" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="BZ17" s="30" t="s">
+      <c r="BZ17" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="CA17" s="30" t="s">
+      <c r="CA17" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="CB17" s="32"/>
+      <c r="CB17" s="31"/>
       <c r="CC17" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="CD17" s="32"/>
-      <c r="CE17" s="32"/>
-      <c r="CF17" s="32" t="s">
+      <c r="CD17" s="31"/>
+      <c r="CE17" s="31"/>
+      <c r="CF17" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="CG17" s="32"/>
-      <c r="CH17" s="32" t="s">
+      <c r="CG17" s="31"/>
+      <c r="CH17" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="CI17" s="32"/>
-      <c r="CJ17" s="33"/>
-      <c r="CK17" s="33"/>
-      <c r="CL17" s="33"/>
-      <c r="CM17" s="34" t="n">
+      <c r="CI17" s="31"/>
+      <c r="CJ17" s="32"/>
+      <c r="CK17" s="32"/>
+      <c r="CL17" s="32"/>
+      <c r="CM17" s="33" t="n">
         <v>1</v>
       </c>
     </row>

--- a/src/core/data/EBOM.xlsx
+++ b/src/core/data/EBOM.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="112">
   <si>
     <t xml:space="preserve">REVISION</t>
   </si>
@@ -298,70 +298,70 @@
     <t xml:space="preserve">123A</t>
   </si>
   <si>
+    <t xml:space="preserve">1.1.1.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7611F20P02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52162A015-00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.364 ID X 0.070 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Titanium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1402.03.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supplying</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this part is for item 13 assy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connector for </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dimension </t>
+  </si>
+  <si>
+    <t xml:space="preserve">جانبی </t>
+  </si>
+  <si>
+    <t xml:space="preserve">کمپرسور</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STRING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DISK-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سایر قطعات-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEXT FILL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reversible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YES</t>
+  </si>
+  <si>
     <t xml:space="preserve">FMI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.1.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7611F20P02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52162A015-00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.364 ID X 0.070 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Titanium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1402.03.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supplying</t>
-  </si>
-  <si>
-    <t xml:space="preserve">this part is for item 13 assy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Connector for </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dimension </t>
-  </si>
-  <si>
-    <t xml:space="preserve">جانبی </t>
-  </si>
-  <si>
-    <t xml:space="preserve">کمپرسور</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STRING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DISK-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">سایر قطعات-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEXT FILL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reversible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YES</t>
   </si>
 </sst>
 </file>
@@ -1023,7 +1023,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="3" outlineLevelCol="1"/>
@@ -1386,38 +1386,34 @@
       <c r="D2" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="24" t="n">
-        <v>12</v>
-      </c>
-      <c r="F2" s="24" t="s">
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24" t="n">
+        <v>12</v>
+      </c>
+      <c r="H2" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="G2" s="24" t="n">
-        <v>12</v>
-      </c>
-      <c r="H2" s="25" t="s">
+      <c r="I2" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="J2" s="24" t="s">
         <v>92</v>
-      </c>
-      <c r="J2" s="24" t="s">
-        <v>93</v>
       </c>
       <c r="K2" s="24"/>
       <c r="L2" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M2" s="24"/>
       <c r="N2" s="24"/>
       <c r="O2" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="P2" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="P2" s="24" t="s">
-        <v>96</v>
-      </c>
       <c r="Q2" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R2" s="24" t="n">
         <v>2</v>
@@ -1444,10 +1440,10 @@
       <c r="AE2" s="28"/>
       <c r="AF2" s="29"/>
       <c r="AG2" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AH2" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI2" s="24"/>
       <c r="AJ2" s="24"/>
@@ -1459,7 +1455,7 @@
       <c r="AP2" s="24"/>
       <c r="AQ2" s="24"/>
       <c r="AR2" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AS2" s="24"/>
       <c r="AT2" s="24"/>
@@ -1468,7 +1464,7 @@
       <c r="AW2" s="24"/>
       <c r="AX2" s="24"/>
       <c r="AY2" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AZ2" s="24"/>
       <c r="BA2" s="24"/>
@@ -1485,49 +1481,49 @@
       <c r="BL2" s="24"/>
       <c r="BM2" s="24"/>
       <c r="BN2" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BO2" s="24"/>
       <c r="BP2" s="24"/>
       <c r="BQ2" s="24"/>
       <c r="BR2" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BS2" s="24"/>
       <c r="BT2" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="BU2" s="29" t="s">
         <v>102</v>
-      </c>
-      <c r="BU2" s="29" t="s">
-        <v>103</v>
       </c>
       <c r="BV2" s="24"/>
       <c r="BW2" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="BX2" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="BX2" s="30" t="s">
+      <c r="BY2" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="BY2" s="24" t="s">
+      <c r="BZ2" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="BZ2" s="24" t="s">
+      <c r="CA2" s="24" t="s">
         <v>107</v>
-      </c>
-      <c r="CA2" s="24" t="s">
-        <v>108</v>
       </c>
       <c r="CB2" s="31"/>
       <c r="CC2" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="CD2" s="31"/>
       <c r="CE2" s="31"/>
       <c r="CF2" s="31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="CG2" s="31"/>
       <c r="CH2" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="CI2" s="31"/>
       <c r="CJ2" s="32"/>
@@ -1554,34 +1550,34 @@
         <v>12</v>
       </c>
       <c r="F3" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="G3" s="24" t="n">
+        <v>12</v>
+      </c>
+      <c r="H3" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="G3" s="24" t="n">
-        <v>12</v>
-      </c>
-      <c r="H3" s="25" t="s">
+      <c r="I3" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="J3" s="24" t="s">
         <v>92</v>
-      </c>
-      <c r="J3" s="24" t="s">
-        <v>93</v>
       </c>
       <c r="K3" s="24"/>
       <c r="L3" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M3" s="24"/>
       <c r="N3" s="24"/>
       <c r="O3" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="P3" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="P3" s="24" t="s">
-        <v>96</v>
-      </c>
       <c r="Q3" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R3" s="24" t="n">
         <v>2</v>
@@ -1608,10 +1604,10 @@
       <c r="AE3" s="28"/>
       <c r="AF3" s="29"/>
       <c r="AG3" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AH3" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI3" s="24"/>
       <c r="AJ3" s="24"/>
@@ -1623,7 +1619,7 @@
       <c r="AP3" s="24"/>
       <c r="AQ3" s="24"/>
       <c r="AR3" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AS3" s="24"/>
       <c r="AT3" s="24"/>
@@ -1632,7 +1628,7 @@
       <c r="AW3" s="24"/>
       <c r="AX3" s="24"/>
       <c r="AY3" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AZ3" s="24"/>
       <c r="BA3" s="24"/>
@@ -1649,49 +1645,49 @@
       <c r="BL3" s="24"/>
       <c r="BM3" s="24"/>
       <c r="BN3" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BO3" s="24"/>
       <c r="BP3" s="24"/>
       <c r="BQ3" s="24"/>
       <c r="BR3" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BS3" s="24"/>
       <c r="BT3" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="BU3" s="29" t="s">
         <v>102</v>
-      </c>
-      <c r="BU3" s="29" t="s">
-        <v>103</v>
       </c>
       <c r="BV3" s="24"/>
       <c r="BW3" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="BX3" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="BX3" s="30" t="s">
+      <c r="BY3" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="BY3" s="24" t="s">
+      <c r="BZ3" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="BZ3" s="24" t="s">
+      <c r="CA3" s="24" t="s">
         <v>107</v>
-      </c>
-      <c r="CA3" s="24" t="s">
-        <v>108</v>
       </c>
       <c r="CB3" s="31"/>
       <c r="CC3" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="CD3" s="31"/>
       <c r="CE3" s="31"/>
       <c r="CF3" s="31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="CG3" s="31"/>
       <c r="CH3" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="CI3" s="31"/>
       <c r="CJ3" s="32"/>
@@ -1718,34 +1714,34 @@
         <v>12</v>
       </c>
       <c r="F4" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="G4" s="24" t="n">
+        <v>12</v>
+      </c>
+      <c r="H4" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="24" t="n">
-        <v>12</v>
-      </c>
-      <c r="H4" s="25" t="s">
+      <c r="I4" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="J4" s="24" t="s">
         <v>92</v>
-      </c>
-      <c r="J4" s="24" t="s">
-        <v>93</v>
       </c>
       <c r="K4" s="24"/>
       <c r="L4" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M4" s="24"/>
       <c r="N4" s="24"/>
       <c r="O4" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="P4" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="P4" s="24" t="s">
-        <v>96</v>
-      </c>
       <c r="Q4" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R4" s="24" t="n">
         <v>2</v>
@@ -1772,10 +1768,10 @@
       <c r="AE4" s="28"/>
       <c r="AF4" s="29"/>
       <c r="AG4" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AH4" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI4" s="24"/>
       <c r="AJ4" s="24"/>
@@ -1787,7 +1783,7 @@
       <c r="AP4" s="24"/>
       <c r="AQ4" s="24"/>
       <c r="AR4" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AS4" s="24"/>
       <c r="AT4" s="24"/>
@@ -1796,7 +1792,7 @@
       <c r="AW4" s="24"/>
       <c r="AX4" s="24"/>
       <c r="AY4" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AZ4" s="24"/>
       <c r="BA4" s="24"/>
@@ -1813,49 +1809,49 @@
       <c r="BL4" s="24"/>
       <c r="BM4" s="24"/>
       <c r="BN4" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BO4" s="24"/>
       <c r="BP4" s="24"/>
       <c r="BQ4" s="24"/>
       <c r="BR4" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BS4" s="24"/>
       <c r="BT4" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="BU4" s="29" t="s">
         <v>102</v>
-      </c>
-      <c r="BU4" s="29" t="s">
-        <v>103</v>
       </c>
       <c r="BV4" s="24"/>
       <c r="BW4" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="BX4" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="BX4" s="30" t="s">
+      <c r="BY4" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="BY4" s="24" t="s">
+      <c r="BZ4" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="BZ4" s="24" t="s">
+      <c r="CA4" s="24" t="s">
         <v>107</v>
-      </c>
-      <c r="CA4" s="24" t="s">
-        <v>108</v>
       </c>
       <c r="CB4" s="31"/>
       <c r="CC4" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="CD4" s="31"/>
       <c r="CE4" s="31"/>
       <c r="CF4" s="31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="CG4" s="31"/>
       <c r="CH4" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="CI4" s="31"/>
       <c r="CJ4" s="32"/>
@@ -1882,34 +1878,34 @@
         <v>12</v>
       </c>
       <c r="F5" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="G5" s="24" t="n">
+        <v>12</v>
+      </c>
+      <c r="H5" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="G5" s="24" t="n">
-        <v>12</v>
-      </c>
-      <c r="H5" s="25" t="s">
+      <c r="I5" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="J5" s="24" t="s">
         <v>92</v>
-      </c>
-      <c r="J5" s="24" t="s">
-        <v>93</v>
       </c>
       <c r="K5" s="24"/>
       <c r="L5" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M5" s="24"/>
       <c r="N5" s="24"/>
       <c r="O5" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="P5" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="P5" s="24" t="s">
-        <v>96</v>
-      </c>
       <c r="Q5" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R5" s="24" t="n">
         <v>2</v>
@@ -1936,10 +1932,10 @@
       <c r="AE5" s="28"/>
       <c r="AF5" s="29"/>
       <c r="AG5" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AH5" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI5" s="24"/>
       <c r="AJ5" s="24"/>
@@ -1951,7 +1947,7 @@
       <c r="AP5" s="24"/>
       <c r="AQ5" s="24"/>
       <c r="AR5" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AS5" s="24"/>
       <c r="AT5" s="24"/>
@@ -1960,7 +1956,7 @@
       <c r="AW5" s="24"/>
       <c r="AX5" s="24"/>
       <c r="AY5" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AZ5" s="24"/>
       <c r="BA5" s="24"/>
@@ -1977,49 +1973,49 @@
       <c r="BL5" s="24"/>
       <c r="BM5" s="24"/>
       <c r="BN5" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BO5" s="24"/>
       <c r="BP5" s="24"/>
       <c r="BQ5" s="24"/>
       <c r="BR5" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BS5" s="24"/>
       <c r="BT5" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="BU5" s="29" t="s">
         <v>102</v>
-      </c>
-      <c r="BU5" s="29" t="s">
-        <v>103</v>
       </c>
       <c r="BV5" s="24"/>
       <c r="BW5" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="BX5" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="BX5" s="30" t="s">
+      <c r="BY5" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="BY5" s="24" t="s">
+      <c r="BZ5" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="BZ5" s="24" t="s">
+      <c r="CA5" s="24" t="s">
         <v>107</v>
-      </c>
-      <c r="CA5" s="24" t="s">
-        <v>108</v>
       </c>
       <c r="CB5" s="31"/>
       <c r="CC5" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="CD5" s="31"/>
       <c r="CE5" s="31"/>
       <c r="CF5" s="31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="CG5" s="31"/>
       <c r="CH5" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="CI5" s="31"/>
       <c r="CJ5" s="32"/>
@@ -2046,34 +2042,34 @@
         <v>12</v>
       </c>
       <c r="F6" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="G6" s="24" t="n">
+        <v>12</v>
+      </c>
+      <c r="H6" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="G6" s="24" t="n">
-        <v>12</v>
-      </c>
-      <c r="H6" s="25" t="s">
+      <c r="I6" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="I6" s="24" t="s">
+      <c r="J6" s="24" t="s">
         <v>92</v>
-      </c>
-      <c r="J6" s="24" t="s">
-        <v>93</v>
       </c>
       <c r="K6" s="24"/>
       <c r="L6" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M6" s="24"/>
       <c r="N6" s="24"/>
       <c r="O6" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="P6" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="P6" s="24" t="s">
-        <v>96</v>
-      </c>
       <c r="Q6" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R6" s="24" t="n">
         <v>2</v>
@@ -2100,10 +2096,10 @@
       <c r="AE6" s="28"/>
       <c r="AF6" s="29"/>
       <c r="AG6" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AH6" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI6" s="24"/>
       <c r="AJ6" s="24"/>
@@ -2115,7 +2111,7 @@
       <c r="AP6" s="24"/>
       <c r="AQ6" s="24"/>
       <c r="AR6" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AS6" s="24"/>
       <c r="AT6" s="24"/>
@@ -2124,7 +2120,7 @@
       <c r="AW6" s="24"/>
       <c r="AX6" s="24"/>
       <c r="AY6" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AZ6" s="24"/>
       <c r="BA6" s="24"/>
@@ -2141,49 +2137,49 @@
       <c r="BL6" s="24"/>
       <c r="BM6" s="24"/>
       <c r="BN6" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BO6" s="24"/>
       <c r="BP6" s="24"/>
       <c r="BQ6" s="24"/>
       <c r="BR6" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BS6" s="24"/>
       <c r="BT6" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="BU6" s="29" t="s">
         <v>102</v>
-      </c>
-      <c r="BU6" s="29" t="s">
-        <v>103</v>
       </c>
       <c r="BV6" s="24"/>
       <c r="BW6" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="BX6" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="BX6" s="30" t="s">
+      <c r="BY6" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="BY6" s="24" t="s">
+      <c r="BZ6" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="BZ6" s="24" t="s">
+      <c r="CA6" s="24" t="s">
         <v>107</v>
-      </c>
-      <c r="CA6" s="24" t="s">
-        <v>108</v>
       </c>
       <c r="CB6" s="31"/>
       <c r="CC6" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="CD6" s="31"/>
       <c r="CE6" s="31"/>
       <c r="CF6" s="31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="CG6" s="31"/>
       <c r="CH6" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="CI6" s="31"/>
       <c r="CJ6" s="32"/>
@@ -2210,34 +2206,32 @@
         <v>12</v>
       </c>
       <c r="F7" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="G7" s="24" t="n">
+        <v>12</v>
+      </c>
+      <c r="H7" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="G7" s="24" t="n">
-        <v>12</v>
-      </c>
-      <c r="H7" s="25" t="s">
+      <c r="I7" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="I7" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="J7" s="24" t="s">
-        <v>93</v>
-      </c>
+      <c r="J7" s="24"/>
       <c r="K7" s="24"/>
       <c r="L7" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M7" s="24"/>
       <c r="N7" s="24"/>
       <c r="O7" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="P7" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="P7" s="24" t="s">
-        <v>96</v>
-      </c>
       <c r="Q7" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R7" s="24" t="n">
         <v>2</v>
@@ -2264,10 +2258,10 @@
       <c r="AE7" s="28"/>
       <c r="AF7" s="29"/>
       <c r="AG7" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AH7" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI7" s="24"/>
       <c r="AJ7" s="24"/>
@@ -2279,7 +2273,7 @@
       <c r="AP7" s="24"/>
       <c r="AQ7" s="24"/>
       <c r="AR7" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AS7" s="24"/>
       <c r="AT7" s="24"/>
@@ -2288,7 +2282,7 @@
       <c r="AW7" s="24"/>
       <c r="AX7" s="24"/>
       <c r="AY7" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AZ7" s="24"/>
       <c r="BA7" s="24"/>
@@ -2305,49 +2299,49 @@
       <c r="BL7" s="24"/>
       <c r="BM7" s="24"/>
       <c r="BN7" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BO7" s="24"/>
       <c r="BP7" s="24"/>
       <c r="BQ7" s="24"/>
       <c r="BR7" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BS7" s="24"/>
       <c r="BT7" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="BU7" s="29" t="s">
         <v>102</v>
-      </c>
-      <c r="BU7" s="29" t="s">
-        <v>103</v>
       </c>
       <c r="BV7" s="24"/>
       <c r="BW7" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="BX7" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="BX7" s="30" t="s">
+      <c r="BY7" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="BY7" s="24" t="s">
+      <c r="BZ7" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="BZ7" s="24" t="s">
+      <c r="CA7" s="24" t="s">
         <v>107</v>
-      </c>
-      <c r="CA7" s="24" t="s">
-        <v>108</v>
       </c>
       <c r="CB7" s="31"/>
       <c r="CC7" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="CD7" s="31"/>
       <c r="CE7" s="31"/>
       <c r="CF7" s="31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="CG7" s="31"/>
       <c r="CH7" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="CI7" s="31"/>
       <c r="CJ7" s="32"/>
@@ -2374,34 +2368,34 @@
         <v>12</v>
       </c>
       <c r="F8" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="G8" s="24" t="n">
+        <v>12</v>
+      </c>
+      <c r="H8" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="G8" s="24" t="n">
-        <v>12</v>
-      </c>
-      <c r="H8" s="25" t="s">
+      <c r="I8" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="J8" s="24" t="s">
         <v>92</v>
-      </c>
-      <c r="J8" s="24" t="s">
-        <v>93</v>
       </c>
       <c r="K8" s="24"/>
       <c r="L8" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M8" s="24"/>
       <c r="N8" s="24"/>
       <c r="O8" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="P8" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="P8" s="24" t="s">
-        <v>96</v>
-      </c>
       <c r="Q8" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R8" s="24" t="n">
         <v>2</v>
@@ -2428,10 +2422,10 @@
       <c r="AE8" s="28"/>
       <c r="AF8" s="29"/>
       <c r="AG8" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AH8" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI8" s="24"/>
       <c r="AJ8" s="24"/>
@@ -2443,7 +2437,7 @@
       <c r="AP8" s="24"/>
       <c r="AQ8" s="24"/>
       <c r="AR8" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AS8" s="24"/>
       <c r="AT8" s="24"/>
@@ -2452,7 +2446,7 @@
       <c r="AW8" s="24"/>
       <c r="AX8" s="24"/>
       <c r="AY8" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AZ8" s="24"/>
       <c r="BA8" s="24"/>
@@ -2469,49 +2463,49 @@
       <c r="BL8" s="24"/>
       <c r="BM8" s="24"/>
       <c r="BN8" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BO8" s="24"/>
       <c r="BP8" s="24"/>
       <c r="BQ8" s="24"/>
       <c r="BR8" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BS8" s="24"/>
       <c r="BT8" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="BU8" s="29" t="s">
         <v>102</v>
-      </c>
-      <c r="BU8" s="29" t="s">
-        <v>103</v>
       </c>
       <c r="BV8" s="24"/>
       <c r="BW8" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="BX8" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="BX8" s="30" t="s">
+      <c r="BY8" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="BY8" s="24" t="s">
+      <c r="BZ8" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="BZ8" s="24" t="s">
+      <c r="CA8" s="24" t="s">
         <v>107</v>
-      </c>
-      <c r="CA8" s="24" t="s">
-        <v>108</v>
       </c>
       <c r="CB8" s="31"/>
       <c r="CC8" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="CD8" s="31"/>
       <c r="CE8" s="31"/>
       <c r="CF8" s="31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="CG8" s="31"/>
       <c r="CH8" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="CI8" s="31"/>
       <c r="CJ8" s="32"/>
@@ -2538,34 +2532,34 @@
         <v>12</v>
       </c>
       <c r="F9" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" s="24" t="n">
+        <v>12</v>
+      </c>
+      <c r="H9" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="G9" s="24" t="n">
-        <v>12</v>
-      </c>
-      <c r="H9" s="25" t="s">
+      <c r="I9" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="I9" s="24" t="s">
+      <c r="J9" s="24" t="s">
         <v>92</v>
-      </c>
-      <c r="J9" s="24" t="s">
-        <v>93</v>
       </c>
       <c r="K9" s="24"/>
       <c r="L9" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M9" s="24"/>
       <c r="N9" s="24"/>
       <c r="O9" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="P9" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="P9" s="24" t="s">
-        <v>96</v>
-      </c>
       <c r="Q9" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R9" s="24" t="n">
         <v>2</v>
@@ -2592,10 +2586,10 @@
       <c r="AE9" s="28"/>
       <c r="AF9" s="29"/>
       <c r="AG9" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AH9" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI9" s="24"/>
       <c r="AJ9" s="24"/>
@@ -2607,7 +2601,7 @@
       <c r="AP9" s="24"/>
       <c r="AQ9" s="24"/>
       <c r="AR9" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AS9" s="24"/>
       <c r="AT9" s="24"/>
@@ -2616,7 +2610,7 @@
       <c r="AW9" s="24"/>
       <c r="AX9" s="24"/>
       <c r="AY9" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AZ9" s="24"/>
       <c r="BA9" s="24"/>
@@ -2633,49 +2627,49 @@
       <c r="BL9" s="24"/>
       <c r="BM9" s="24"/>
       <c r="BN9" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BO9" s="24"/>
       <c r="BP9" s="24"/>
       <c r="BQ9" s="24"/>
       <c r="BR9" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BS9" s="24"/>
       <c r="BT9" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="BU9" s="29" t="s">
         <v>102</v>
-      </c>
-      <c r="BU9" s="29" t="s">
-        <v>103</v>
       </c>
       <c r="BV9" s="24"/>
       <c r="BW9" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="BX9" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="BX9" s="30" t="s">
+      <c r="BY9" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="BY9" s="24" t="s">
+      <c r="BZ9" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="BZ9" s="24" t="s">
+      <c r="CA9" s="24" t="s">
         <v>107</v>
-      </c>
-      <c r="CA9" s="24" t="s">
-        <v>108</v>
       </c>
       <c r="CB9" s="31"/>
       <c r="CC9" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="CD9" s="31"/>
       <c r="CE9" s="31"/>
       <c r="CF9" s="31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="CG9" s="31"/>
       <c r="CH9" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="CI9" s="31"/>
       <c r="CJ9" s="32"/>
@@ -2702,34 +2696,34 @@
         <v>12</v>
       </c>
       <c r="F10" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="G10" s="24" t="n">
+        <v>12</v>
+      </c>
+      <c r="H10" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="G10" s="24" t="n">
-        <v>12</v>
-      </c>
-      <c r="H10" s="25" t="s">
+      <c r="I10" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="I10" s="24" t="s">
+      <c r="J10" s="24" t="s">
         <v>92</v>
-      </c>
-      <c r="J10" s="24" t="s">
-        <v>93</v>
       </c>
       <c r="K10" s="24"/>
       <c r="L10" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M10" s="24"/>
       <c r="N10" s="24"/>
       <c r="O10" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="P10" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="P10" s="24" t="s">
-        <v>96</v>
-      </c>
       <c r="Q10" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R10" s="24" t="n">
         <v>2</v>
@@ -2756,10 +2750,10 @@
       <c r="AE10" s="28"/>
       <c r="AF10" s="29"/>
       <c r="AG10" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AH10" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI10" s="24"/>
       <c r="AJ10" s="24"/>
@@ -2771,7 +2765,7 @@
       <c r="AP10" s="24"/>
       <c r="AQ10" s="24"/>
       <c r="AR10" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AS10" s="24"/>
       <c r="AT10" s="24"/>
@@ -2780,7 +2774,7 @@
       <c r="AW10" s="24"/>
       <c r="AX10" s="24"/>
       <c r="AY10" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AZ10" s="24"/>
       <c r="BA10" s="24"/>
@@ -2797,49 +2791,49 @@
       <c r="BL10" s="24"/>
       <c r="BM10" s="24"/>
       <c r="BN10" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BO10" s="24"/>
       <c r="BP10" s="24"/>
       <c r="BQ10" s="24"/>
       <c r="BR10" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BS10" s="24"/>
       <c r="BT10" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="BU10" s="29" t="s">
         <v>102</v>
-      </c>
-      <c r="BU10" s="29" t="s">
-        <v>103</v>
       </c>
       <c r="BV10" s="24"/>
       <c r="BW10" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="BX10" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="BX10" s="30" t="s">
+      <c r="BY10" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="BY10" s="24" t="s">
+      <c r="BZ10" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="BZ10" s="24" t="s">
+      <c r="CA10" s="24" t="s">
         <v>107</v>
-      </c>
-      <c r="CA10" s="24" t="s">
-        <v>108</v>
       </c>
       <c r="CB10" s="31"/>
       <c r="CC10" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="CD10" s="31"/>
       <c r="CE10" s="31"/>
       <c r="CF10" s="31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="CG10" s="31"/>
       <c r="CH10" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="CI10" s="31"/>
       <c r="CJ10" s="32"/>
@@ -2866,34 +2860,34 @@
         <v>12</v>
       </c>
       <c r="F11" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" s="24" t="n">
+        <v>12</v>
+      </c>
+      <c r="H11" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="G11" s="24" t="n">
-        <v>12</v>
-      </c>
-      <c r="H11" s="25" t="s">
+      <c r="I11" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="I11" s="24" t="s">
+      <c r="J11" s="24" t="s">
         <v>92</v>
-      </c>
-      <c r="J11" s="24" t="s">
-        <v>93</v>
       </c>
       <c r="K11" s="24"/>
       <c r="L11" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M11" s="24"/>
       <c r="N11" s="24"/>
       <c r="O11" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="P11" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="P11" s="24" t="s">
-        <v>96</v>
-      </c>
       <c r="Q11" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R11" s="24" t="n">
         <v>2</v>
@@ -2920,10 +2914,10 @@
       <c r="AE11" s="28"/>
       <c r="AF11" s="29"/>
       <c r="AG11" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AH11" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI11" s="24"/>
       <c r="AJ11" s="24"/>
@@ -2935,7 +2929,7 @@
       <c r="AP11" s="24"/>
       <c r="AQ11" s="24"/>
       <c r="AR11" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AS11" s="24"/>
       <c r="AT11" s="24"/>
@@ -2944,7 +2938,7 @@
       <c r="AW11" s="24"/>
       <c r="AX11" s="24"/>
       <c r="AY11" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AZ11" s="24"/>
       <c r="BA11" s="24"/>
@@ -2961,49 +2955,49 @@
       <c r="BL11" s="24"/>
       <c r="BM11" s="24"/>
       <c r="BN11" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BO11" s="24"/>
       <c r="BP11" s="24"/>
       <c r="BQ11" s="24"/>
       <c r="BR11" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BS11" s="24"/>
       <c r="BT11" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="BU11" s="29" t="s">
         <v>102</v>
-      </c>
-      <c r="BU11" s="29" t="s">
-        <v>103</v>
       </c>
       <c r="BV11" s="24"/>
       <c r="BW11" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="BX11" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="BX11" s="30" t="s">
+      <c r="BY11" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="BY11" s="24" t="s">
+      <c r="BZ11" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="BZ11" s="24" t="s">
+      <c r="CA11" s="24" t="s">
         <v>107</v>
-      </c>
-      <c r="CA11" s="24" t="s">
-        <v>108</v>
       </c>
       <c r="CB11" s="31"/>
       <c r="CC11" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="CD11" s="31"/>
       <c r="CE11" s="31"/>
       <c r="CF11" s="31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="CG11" s="31"/>
       <c r="CH11" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="CI11" s="31"/>
       <c r="CJ11" s="32"/>
@@ -3030,34 +3024,34 @@
         <v>12</v>
       </c>
       <c r="F12" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="G12" s="24" t="n">
+        <v>12</v>
+      </c>
+      <c r="H12" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="G12" s="24" t="n">
-        <v>12</v>
-      </c>
-      <c r="H12" s="25" t="s">
+      <c r="I12" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="I12" s="24" t="s">
+      <c r="J12" s="24" t="s">
         <v>92</v>
-      </c>
-      <c r="J12" s="24" t="s">
-        <v>93</v>
       </c>
       <c r="K12" s="24"/>
       <c r="L12" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M12" s="24"/>
       <c r="N12" s="24"/>
       <c r="O12" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="P12" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="P12" s="24" t="s">
-        <v>96</v>
-      </c>
       <c r="Q12" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R12" s="24" t="n">
         <v>2</v>
@@ -3084,10 +3078,10 @@
       <c r="AE12" s="28"/>
       <c r="AF12" s="29"/>
       <c r="AG12" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AH12" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI12" s="24"/>
       <c r="AJ12" s="24"/>
@@ -3099,7 +3093,7 @@
       <c r="AP12" s="24"/>
       <c r="AQ12" s="24"/>
       <c r="AR12" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AS12" s="24"/>
       <c r="AT12" s="24"/>
@@ -3108,7 +3102,7 @@
       <c r="AW12" s="24"/>
       <c r="AX12" s="24"/>
       <c r="AY12" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AZ12" s="24"/>
       <c r="BA12" s="24"/>
@@ -3125,49 +3119,49 @@
       <c r="BL12" s="24"/>
       <c r="BM12" s="24"/>
       <c r="BN12" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BO12" s="24"/>
       <c r="BP12" s="24"/>
       <c r="BQ12" s="24"/>
       <c r="BR12" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BS12" s="24"/>
       <c r="BT12" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="BU12" s="29" t="s">
         <v>102</v>
-      </c>
-      <c r="BU12" s="29" t="s">
-        <v>103</v>
       </c>
       <c r="BV12" s="24"/>
       <c r="BW12" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="BX12" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="BX12" s="30" t="s">
+      <c r="BY12" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="BY12" s="24" t="s">
+      <c r="BZ12" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="BZ12" s="24" t="s">
+      <c r="CA12" s="24" t="s">
         <v>107</v>
-      </c>
-      <c r="CA12" s="24" t="s">
-        <v>108</v>
       </c>
       <c r="CB12" s="31"/>
       <c r="CC12" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="CD12" s="31"/>
       <c r="CE12" s="31"/>
       <c r="CF12" s="31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="CG12" s="31"/>
       <c r="CH12" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="CI12" s="31"/>
       <c r="CJ12" s="32"/>
@@ -3194,34 +3188,34 @@
         <v>12</v>
       </c>
       <c r="F13" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="G13" s="24" t="n">
+        <v>12</v>
+      </c>
+      <c r="H13" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="G13" s="24" t="n">
-        <v>12</v>
-      </c>
-      <c r="H13" s="25" t="s">
+      <c r="I13" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="I13" s="24" t="s">
+      <c r="J13" s="24" t="s">
         <v>92</v>
-      </c>
-      <c r="J13" s="24" t="s">
-        <v>93</v>
       </c>
       <c r="K13" s="24"/>
       <c r="L13" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M13" s="24"/>
       <c r="N13" s="24"/>
       <c r="O13" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="P13" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="P13" s="24" t="s">
-        <v>96</v>
-      </c>
       <c r="Q13" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R13" s="24" t="n">
         <v>2</v>
@@ -3248,10 +3242,10 @@
       <c r="AE13" s="28"/>
       <c r="AF13" s="29"/>
       <c r="AG13" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AH13" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI13" s="24"/>
       <c r="AJ13" s="24"/>
@@ -3263,7 +3257,7 @@
       <c r="AP13" s="24"/>
       <c r="AQ13" s="24"/>
       <c r="AR13" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AS13" s="24"/>
       <c r="AT13" s="24"/>
@@ -3272,7 +3266,7 @@
       <c r="AW13" s="24"/>
       <c r="AX13" s="24"/>
       <c r="AY13" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AZ13" s="24"/>
       <c r="BA13" s="24"/>
@@ -3289,49 +3283,49 @@
       <c r="BL13" s="24"/>
       <c r="BM13" s="24"/>
       <c r="BN13" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BO13" s="24"/>
       <c r="BP13" s="24"/>
       <c r="BQ13" s="24"/>
       <c r="BR13" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BS13" s="24"/>
       <c r="BT13" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="BU13" s="29" t="s">
         <v>102</v>
-      </c>
-      <c r="BU13" s="29" t="s">
-        <v>103</v>
       </c>
       <c r="BV13" s="24"/>
       <c r="BW13" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="BX13" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="BX13" s="30" t="s">
+      <c r="BY13" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="BY13" s="24" t="s">
+      <c r="BZ13" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="BZ13" s="24" t="s">
+      <c r="CA13" s="24" t="s">
         <v>107</v>
-      </c>
-      <c r="CA13" s="24" t="s">
-        <v>108</v>
       </c>
       <c r="CB13" s="31"/>
       <c r="CC13" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="CD13" s="31"/>
       <c r="CE13" s="31"/>
       <c r="CF13" s="31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="CG13" s="31"/>
       <c r="CH13" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="CI13" s="31"/>
       <c r="CJ13" s="32"/>
@@ -3358,34 +3352,34 @@
         <v>12</v>
       </c>
       <c r="F14" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="G14" s="24" t="n">
+        <v>12</v>
+      </c>
+      <c r="H14" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="G14" s="24" t="n">
-        <v>12</v>
-      </c>
-      <c r="H14" s="25" t="s">
+      <c r="I14" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="I14" s="24" t="s">
+      <c r="J14" s="24" t="s">
         <v>92</v>
-      </c>
-      <c r="J14" s="24" t="s">
-        <v>93</v>
       </c>
       <c r="K14" s="24"/>
       <c r="L14" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M14" s="24"/>
       <c r="N14" s="24"/>
       <c r="O14" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="P14" s="24" t="s">
-        <v>96</v>
-      </c>
       <c r="Q14" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R14" s="24" t="n">
         <v>2</v>
@@ -3412,10 +3406,10 @@
       <c r="AE14" s="28"/>
       <c r="AF14" s="29"/>
       <c r="AG14" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AH14" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI14" s="24"/>
       <c r="AJ14" s="24"/>
@@ -3427,7 +3421,7 @@
       <c r="AP14" s="24"/>
       <c r="AQ14" s="24"/>
       <c r="AR14" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AS14" s="24"/>
       <c r="AT14" s="24"/>
@@ -3436,7 +3430,7 @@
       <c r="AW14" s="24"/>
       <c r="AX14" s="24"/>
       <c r="AY14" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AZ14" s="24"/>
       <c r="BA14" s="24"/>
@@ -3453,49 +3447,49 @@
       <c r="BL14" s="24"/>
       <c r="BM14" s="24"/>
       <c r="BN14" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BO14" s="24"/>
       <c r="BP14" s="24"/>
       <c r="BQ14" s="24"/>
       <c r="BR14" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BS14" s="24"/>
       <c r="BT14" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="BU14" s="29" t="s">
         <v>102</v>
-      </c>
-      <c r="BU14" s="29" t="s">
-        <v>103</v>
       </c>
       <c r="BV14" s="24"/>
       <c r="BW14" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="BX14" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="BX14" s="30" t="s">
+      <c r="BY14" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="BY14" s="24" t="s">
+      <c r="BZ14" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="BZ14" s="24" t="s">
+      <c r="CA14" s="24" t="s">
         <v>107</v>
-      </c>
-      <c r="CA14" s="24" t="s">
-        <v>108</v>
       </c>
       <c r="CB14" s="31"/>
       <c r="CC14" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="CD14" s="31"/>
       <c r="CE14" s="31"/>
       <c r="CF14" s="31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="CG14" s="31"/>
       <c r="CH14" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="CI14" s="31"/>
       <c r="CJ14" s="32"/>
@@ -3522,34 +3516,34 @@
         <v>12</v>
       </c>
       <c r="F15" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="G15" s="24" t="n">
+        <v>12</v>
+      </c>
+      <c r="H15" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="G15" s="24" t="n">
-        <v>12</v>
-      </c>
-      <c r="H15" s="25" t="s">
+      <c r="I15" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="I15" s="24" t="s">
+      <c r="J15" s="24" t="s">
         <v>92</v>
-      </c>
-      <c r="J15" s="24" t="s">
-        <v>93</v>
       </c>
       <c r="K15" s="24"/>
       <c r="L15" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M15" s="24"/>
       <c r="N15" s="24"/>
       <c r="O15" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="P15" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="P15" s="24" t="s">
-        <v>96</v>
-      </c>
       <c r="Q15" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R15" s="24" t="n">
         <v>2</v>
@@ -3576,10 +3570,10 @@
       <c r="AE15" s="28"/>
       <c r="AF15" s="29"/>
       <c r="AG15" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AH15" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI15" s="24"/>
       <c r="AJ15" s="24"/>
@@ -3591,7 +3585,7 @@
       <c r="AP15" s="24"/>
       <c r="AQ15" s="24"/>
       <c r="AR15" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AS15" s="24"/>
       <c r="AT15" s="24"/>
@@ -3600,7 +3594,7 @@
       <c r="AW15" s="24"/>
       <c r="AX15" s="24"/>
       <c r="AY15" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AZ15" s="24"/>
       <c r="BA15" s="24"/>
@@ -3617,49 +3611,49 @@
       <c r="BL15" s="24"/>
       <c r="BM15" s="24"/>
       <c r="BN15" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BO15" s="24"/>
       <c r="BP15" s="24"/>
       <c r="BQ15" s="24"/>
       <c r="BR15" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BS15" s="24"/>
       <c r="BT15" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="BU15" s="29" t="s">
         <v>102</v>
-      </c>
-      <c r="BU15" s="29" t="s">
-        <v>103</v>
       </c>
       <c r="BV15" s="24"/>
       <c r="BW15" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="BX15" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="BX15" s="30" t="s">
+      <c r="BY15" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="BY15" s="24" t="s">
+      <c r="BZ15" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="BZ15" s="24" t="s">
+      <c r="CA15" s="24" t="s">
         <v>107</v>
-      </c>
-      <c r="CA15" s="24" t="s">
-        <v>108</v>
       </c>
       <c r="CB15" s="31"/>
       <c r="CC15" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="CD15" s="31"/>
       <c r="CE15" s="31"/>
       <c r="CF15" s="31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="CG15" s="31"/>
       <c r="CH15" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="CI15" s="31"/>
       <c r="CJ15" s="32"/>
@@ -3686,34 +3680,34 @@
         <v>12</v>
       </c>
       <c r="F16" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="G16" s="24" t="n">
+        <v>12</v>
+      </c>
+      <c r="H16" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="24" t="n">
-        <v>12</v>
-      </c>
-      <c r="H16" s="25" t="s">
+      <c r="I16" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="I16" s="24" t="s">
+      <c r="J16" s="24" t="s">
         <v>92</v>
-      </c>
-      <c r="J16" s="24" t="s">
-        <v>93</v>
       </c>
       <c r="K16" s="24"/>
       <c r="L16" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M16" s="24"/>
       <c r="N16" s="24"/>
       <c r="O16" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="24" t="s">
-        <v>96</v>
-      </c>
       <c r="Q16" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R16" s="24" t="n">
         <v>2</v>
@@ -3740,10 +3734,10 @@
       <c r="AE16" s="28"/>
       <c r="AF16" s="29"/>
       <c r="AG16" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AH16" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI16" s="24"/>
       <c r="AJ16" s="24"/>
@@ -3755,7 +3749,7 @@
       <c r="AP16" s="24"/>
       <c r="AQ16" s="24"/>
       <c r="AR16" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AS16" s="24"/>
       <c r="AT16" s="24"/>
@@ -3764,7 +3758,7 @@
       <c r="AW16" s="24"/>
       <c r="AX16" s="24"/>
       <c r="AY16" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AZ16" s="24"/>
       <c r="BA16" s="24"/>
@@ -3781,49 +3775,49 @@
       <c r="BL16" s="24"/>
       <c r="BM16" s="24"/>
       <c r="BN16" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BO16" s="24"/>
       <c r="BP16" s="24"/>
       <c r="BQ16" s="24"/>
       <c r="BR16" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BS16" s="24"/>
       <c r="BT16" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="BU16" s="29" t="s">
         <v>102</v>
-      </c>
-      <c r="BU16" s="29" t="s">
-        <v>103</v>
       </c>
       <c r="BV16" s="24"/>
       <c r="BW16" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="BX16" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="BX16" s="30" t="s">
+      <c r="BY16" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="BY16" s="24" t="s">
+      <c r="BZ16" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="BZ16" s="24" t="s">
+      <c r="CA16" s="24" t="s">
         <v>107</v>
-      </c>
-      <c r="CA16" s="24" t="s">
-        <v>108</v>
       </c>
       <c r="CB16" s="31"/>
       <c r="CC16" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="CD16" s="31"/>
       <c r="CE16" s="31"/>
       <c r="CF16" s="31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="CG16" s="31"/>
       <c r="CH16" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="CI16" s="31"/>
       <c r="CJ16" s="32"/>
@@ -3850,34 +3844,34 @@
         <v>12</v>
       </c>
       <c r="F17" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="G17" s="24" t="n">
+        <v>12</v>
+      </c>
+      <c r="H17" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="G17" s="24" t="n">
-        <v>12</v>
-      </c>
-      <c r="H17" s="25" t="s">
+      <c r="I17" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="I17" s="24" t="s">
+      <c r="J17" s="24" t="s">
         <v>92</v>
-      </c>
-      <c r="J17" s="24" t="s">
-        <v>93</v>
       </c>
       <c r="K17" s="24"/>
       <c r="L17" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M17" s="24"/>
       <c r="N17" s="24"/>
       <c r="O17" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="P17" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="P17" s="24" t="s">
-        <v>96</v>
-      </c>
       <c r="Q17" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R17" s="24" t="n">
         <v>2</v>
@@ -3904,10 +3898,10 @@
       <c r="AE17" s="28"/>
       <c r="AF17" s="29"/>
       <c r="AG17" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AH17" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI17" s="24"/>
       <c r="AJ17" s="24"/>
@@ -3919,7 +3913,7 @@
       <c r="AP17" s="24"/>
       <c r="AQ17" s="24"/>
       <c r="AR17" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AS17" s="24"/>
       <c r="AT17" s="24"/>
@@ -3928,7 +3922,7 @@
       <c r="AW17" s="24"/>
       <c r="AX17" s="24"/>
       <c r="AY17" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AZ17" s="24"/>
       <c r="BA17" s="24"/>
@@ -3945,49 +3939,49 @@
       <c r="BL17" s="24"/>
       <c r="BM17" s="24"/>
       <c r="BN17" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BO17" s="24"/>
       <c r="BP17" s="24"/>
       <c r="BQ17" s="24"/>
       <c r="BR17" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BS17" s="24"/>
       <c r="BT17" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="BU17" s="29" t="s">
         <v>102</v>
-      </c>
-      <c r="BU17" s="29" t="s">
-        <v>103</v>
       </c>
       <c r="BV17" s="24"/>
       <c r="BW17" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="BX17" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="BX17" s="30" t="s">
+      <c r="BY17" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="BY17" s="24" t="s">
+      <c r="BZ17" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="BZ17" s="24" t="s">
+      <c r="CA17" s="24" t="s">
         <v>107</v>
-      </c>
-      <c r="CA17" s="24" t="s">
-        <v>108</v>
       </c>
       <c r="CB17" s="31"/>
       <c r="CC17" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="CD17" s="31"/>
       <c r="CE17" s="31"/>
       <c r="CF17" s="31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="CG17" s="31"/>
       <c r="CH17" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="CI17" s="31"/>
       <c r="CJ17" s="32"/>
